--- a/Laba1/Laba1.xlsx
+++ b/Laba1/Laba1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E6602F-2B20-4FB7-A3EB-643A39D23838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,6 +121,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -147,7 +147,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -558,6 +558,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -594,7 +595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="275541432"/>
@@ -635,9 +636,24 @@
                   <a:rPr lang="ru-RU"/>
                   <a:t>Время выполнения задачи</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>,</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y.e.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -674,7 +690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="275542608"/>
@@ -699,7 +715,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -725,6 +741,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -750,7 +767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -761,9 +778,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13354079561675103"/>
+          <c:x val="0.1761888542416247"/>
           <c:y val="0.22876940060349071"/>
-          <c:w val="0.7584156618750435"/>
+          <c:w val="0.77669337171184138"/>
           <c:h val="0.57808541049362783"/>
         </c:manualLayout>
       </c:layout>
@@ -884,6 +901,7 @@
         <c:axId val="275542608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -960,7 +978,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -998,7 +1016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="275541432"/>
@@ -1049,6 +1067,16 @@
                   <a:rPr lang="ru-RU" b="1"/>
                   <a:t>Время выполнения задачи</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>,y.e</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1085,7 +1113,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1123,7 +1151,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="275542608"/>
@@ -1179,7 +1207,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1209,7 +1237,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1822,8 +1850,8 @@
       <xdr:rowOff>168983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>243050</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244415</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>20832</xdr:rowOff>
     </xdr:to>
@@ -1931,23 +1959,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1983,23 +1994,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2175,11 +2169,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
